--- a/story/Activity Story 活动剧情/act5d1 Contingency Contract 危机合约 危機契約/ui_act5d1_cc.xlsx
+++ b/story/Activity Story 活动剧情/act5d1 Contingency Contract 危机合约 危機契約/ui_act5d1_cc.xlsx
@@ -732,7 +732,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">People took refuge within the wisdom of their predecessors, constructing havens of concrete and steel known as "nomadic cities" to escape annihilation.
+    <t xml:space="preserve">People took refuge within the wisdom of their predecessors, constructing havens of concrete and steel known as 'nomadic cities' to escape annihilation.
 </t>
   </si>
   <si>
@@ -920,7 +920,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Dobermann"]   "Everything for the benefit of more lives." They always tout something along these lines.
+    <t xml:space="preserve">[name="Dobermann"]   'Everything for the benefit of more lives.' They always tout something along these lines.
 </t>
   </si>
   <si>
@@ -952,7 +952,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]   Based upon the specific terms set in each task, Contingency Contract will provide "optional contracts" for you to choose from.
+    <t xml:space="preserve">[name="Amiya"]   Based upon the specific terms set in each task, Contingency Contract will provide 'optional contracts' for you to choose from.
 </t>
   </si>
   <si>
@@ -1000,15 +1000,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Dobermann"]   Missions will have two different difficulty classifications based upon the contents of their contracts: "Normal," and "Hard."
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Dobermann"]   When the combined risk assessment of the selected contracts, also known as "Contingency Level"  is 4 or lower, the mission is assessed as "Normal" difficulty.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Dobermann"]   When the Contingency Level is 7 or higher, the mission is assessed as "Hard."
+    <t xml:space="preserve">[name="Dobermann"]   Missions will have two different difficulty classifications based upon the contents of their contracts: 'Normal,' and 'Hard.'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Dobermann"]   When the combined risk assessment of the selected contracts, also known as 'Contingency Level'  is 4 or lower, the mission is assessed as 'Normal' difficulty.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Dobermann"]   When the Contingency Level is 7 or higher, the mission is assessed as 'Hard.'
 </t>
   </si>
   <si>
@@ -1052,7 +1052,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">"Contingency Contract."
+    <t xml:space="preserve">'Contingency Contract.'
 </t>
   </si>
   <si>
@@ -1064,7 +1064,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">No matter what disasters await this world, the "Contingency Contract" network will always continue to weave the web that never sees the light of day.
+    <t xml:space="preserve">No matter what disasters await this world, the 'Contingency Contract' network will always continue to weave the web that never sees the light of day.
 </t>
   </si>
   <si>
